--- a/REGULAR/ONT/BAYOT, MARY JANE A.xlsx
+++ b/REGULAR/ONT/BAYOT, MARY JANE A.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11505" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1879,9 +1879,9 @@
   <dimension ref="A2:K494"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A427" activePane="bottomLeft"/>
-      <selection activeCell="A8" sqref="A8:K8"/>
-      <selection pane="bottomLeft" activeCell="F441" sqref="F441"/>
+      <pane ySplit="3690" topLeftCell="A433" activePane="bottomLeft"/>
+      <selection activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="B456" sqref="B456:C456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2048,7 +2048,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>185.358</v>
+        <v>189.108</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2058,7 +2058,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>241</v>
+        <v>244.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -11398,7 +11398,7 @@
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B444" s="20"/>
       <c r="C444" s="13">
@@ -11418,7 +11418,7 @@
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
-        <v>44958</v>
+        <v>44985</v>
       </c>
       <c r="B445" s="20"/>
       <c r="C445" s="13">
@@ -11438,7 +11438,7 @@
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
-        <v>44986</v>
+        <v>45016</v>
       </c>
       <c r="B446" s="20"/>
       <c r="C446" s="13">
@@ -11458,7 +11458,7 @@
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B447" s="20"/>
       <c r="C447" s="13">
@@ -11478,7 +11478,7 @@
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
-        <v>45047</v>
+        <v>45077</v>
       </c>
       <c r="B448" s="20"/>
       <c r="C448" s="13">
@@ -11498,7 +11498,7 @@
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
-        <v>45078</v>
+        <v>45107</v>
       </c>
       <c r="B449" s="20"/>
       <c r="C449" s="13">
@@ -11518,7 +11518,7 @@
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B450" s="20"/>
       <c r="C450" s="13">
@@ -11538,16 +11538,18 @@
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
-        <v>45139</v>
+        <v>45169</v>
       </c>
       <c r="B451" s="20"/>
-      <c r="C451" s="13"/>
+      <c r="C451" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D451" s="39"/>
       <c r="E451" s="9"/>
       <c r="F451" s="20"/>
-      <c r="G451" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G451" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H451" s="39"/>
       <c r="I451" s="9"/>
@@ -11556,16 +11558,18 @@
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
-        <v>45170</v>
+        <v>45199</v>
       </c>
       <c r="B452" s="20"/>
-      <c r="C452" s="13"/>
+      <c r="C452" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D452" s="39"/>
       <c r="E452" s="9"/>
       <c r="F452" s="20"/>
-      <c r="G452" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G452" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H452" s="39"/>
       <c r="I452" s="9"/>
@@ -11573,15 +11577,19 @@
       <c r="K452" s="20"/>
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A453" s="40"/>
+      <c r="A453" s="40">
+        <v>45200</v>
+      </c>
       <c r="B453" s="20"/>
-      <c r="C453" s="13"/>
+      <c r="C453" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D453" s="39"/>
       <c r="E453" s="9"/>
       <c r="F453" s="20"/>
-      <c r="G453" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G453" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H453" s="39"/>
       <c r="I453" s="9"/>
@@ -12289,7 +12297,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12411,7 +12419,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="35">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>426.358</v>
+        <v>433.858</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
